--- a/public/nhập đề ddtr.xlsx
+++ b/public/nhập đề ddtr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\coding\ddtr-off-version\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E36D99B-FE61-4496-A697-809CE17F1987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E00C52-B065-4B05-8DB1-F7AA9E996820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,16 +85,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Myriad Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,20 +126,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -390,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="23.25" zeroHeight="1" x14ac:dyDescent="0.35"/>
@@ -428,7 +479,7 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -439,212 +490,222 @@
       <c r="A2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1.2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2.1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>3.1</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>3.2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>4.2</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>5.2</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>6.1</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>6.2</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>7.1</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>7.2</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>8.1</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="33" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="34" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="35" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="36" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="37" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="38" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="39" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="40" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="41" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>